--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H2">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.36175898593829</v>
+        <v>135.955556</v>
       </c>
       <c r="N2">
-        <v>94.36175898593829</v>
+        <v>407.866668</v>
       </c>
       <c r="O2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q2">
-        <v>3298.366428092152</v>
+        <v>29445.6922766444</v>
       </c>
       <c r="R2">
-        <v>3298.366428092152</v>
+        <v>265011.2304897996</v>
       </c>
       <c r="S2">
-        <v>0.0768153148523562</v>
+        <v>0.3009325902610258</v>
       </c>
       <c r="T2">
-        <v>0.0768153148523562</v>
+        <v>0.3009325902610257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H3">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.878142231875</v>
+        <v>0.449122</v>
       </c>
       <c r="N3">
-        <v>51.878142231875</v>
+        <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q3">
-        <v>1813.373601004039</v>
+        <v>97.27228953166934</v>
       </c>
       <c r="R3">
-        <v>1813.373601004039</v>
+        <v>875.4506057850241</v>
       </c>
       <c r="S3">
-        <v>0.0422314703787012</v>
+        <v>0.0009941149209320465</v>
       </c>
       <c r="T3">
-        <v>0.0422314703787012</v>
+        <v>0.0009941149209320463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H4">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21983089207526</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N4">
-        <v>2.21983089207526</v>
+        <v>169.150996</v>
       </c>
       <c r="O4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q4">
-        <v>77.59303948068602</v>
+        <v>12211.75586847393</v>
       </c>
       <c r="R4">
-        <v>77.59303948068602</v>
+        <v>109905.8028162653</v>
       </c>
       <c r="S4">
-        <v>0.001807056277100113</v>
+        <v>0.1248031559458357</v>
       </c>
       <c r="T4">
-        <v>0.001807056277100113</v>
+        <v>0.1248031559458357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>158.264630314358</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H5">
-        <v>158.264630314358</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I5">
-        <v>0.5471941601088505</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J5">
-        <v>0.5471941601088505</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.36175898593829</v>
+        <v>2.896484</v>
       </c>
       <c r="N5">
-        <v>94.36175898593829</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q5">
-        <v>14934.12890172207</v>
+        <v>627.3298352604586</v>
       </c>
       <c r="R5">
-        <v>14934.12890172207</v>
+        <v>5645.968517344128</v>
       </c>
       <c r="S5">
-        <v>0.347799384525934</v>
+        <v>0.00641126010892572</v>
       </c>
       <c r="T5">
-        <v>0.347799384525934</v>
+        <v>0.006411260108925719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H6">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.878142231875</v>
+        <v>135.955556</v>
       </c>
       <c r="N6">
-        <v>51.878142231875</v>
+        <v>407.866668</v>
       </c>
       <c r="O6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q6">
-        <v>8210.47500172338</v>
+        <v>22018.67853713554</v>
       </c>
       <c r="R6">
-        <v>8210.47500172338</v>
+        <v>198168.1068342199</v>
       </c>
       <c r="S6">
-        <v>0.1912129037493225</v>
+        <v>0.2250291113570029</v>
       </c>
       <c r="T6">
-        <v>0.1912129037493225</v>
+        <v>0.2250291113570029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H7">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.21983089207526</v>
+        <v>0.449122</v>
       </c>
       <c r="N7">
-        <v>2.21983089207526</v>
+        <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q7">
-        <v>351.3207154946825</v>
+        <v>72.737541832828</v>
       </c>
       <c r="R7">
-        <v>351.3207154946825</v>
+        <v>654.637876495452</v>
       </c>
       <c r="S7">
-        <v>0.00818187183359396</v>
+        <v>0.0007433717865188229</v>
       </c>
       <c r="T7">
-        <v>0.00818187183359396</v>
+        <v>0.0007433717865188227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.445568277803339</v>
+        <v>161.954974</v>
       </c>
       <c r="H8">
-        <v>0.445568277803339</v>
+        <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J8">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.36175898593829</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N8">
-        <v>94.36175898593829</v>
+        <v>169.150996</v>
       </c>
       <c r="O8">
-        <v>0.6356050738128274</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P8">
-        <v>0.6356050738128274</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q8">
-        <v>42.04460644185828</v>
+        <v>9131.615053084701</v>
       </c>
       <c r="R8">
-        <v>42.04460644185828</v>
+        <v>82184.5354777623</v>
       </c>
       <c r="S8">
-        <v>0.0009791724940466544</v>
+        <v>0.09332436627312717</v>
       </c>
       <c r="T8">
-        <v>0.0009791724940466544</v>
+        <v>0.09332436627312712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.445568277803339</v>
+        <v>161.954974</v>
       </c>
       <c r="H9">
-        <v>0.445568277803339</v>
+        <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J9">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.878142231875</v>
+        <v>2.896484</v>
       </c>
       <c r="N9">
-        <v>51.878142231875</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O9">
-        <v>0.3494425154524411</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P9">
-        <v>0.3494425154524411</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q9">
-        <v>23.11525448989321</v>
+        <v>469.0999909114159</v>
       </c>
       <c r="R9">
-        <v>23.11525448989321</v>
+        <v>4221.899918202744</v>
       </c>
       <c r="S9">
-        <v>0.0005383287728163475</v>
+        <v>0.004794163914711784</v>
       </c>
       <c r="T9">
-        <v>0.0005383287728163475</v>
+        <v>0.004794163914711783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H10">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.21983089207526</v>
+        <v>135.955556</v>
       </c>
       <c r="N10">
-        <v>2.21983089207526</v>
+        <v>407.866668</v>
       </c>
       <c r="O10">
-        <v>0.0149524107347315</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P10">
-        <v>0.0149524107347315</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q10">
-        <v>0.9890862275966232</v>
+        <v>62.64877338998666</v>
       </c>
       <c r="R10">
-        <v>0.9890862275966232</v>
+        <v>563.8389605098799</v>
       </c>
       <c r="S10">
-        <v>2.303472693084335E-05</v>
+        <v>0.0006402653901222249</v>
       </c>
       <c r="T10">
-        <v>2.303472693084335E-05</v>
+        <v>0.0006402653901222249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H11">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I11">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J11">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>94.36175898593829</v>
+        <v>0.449122</v>
       </c>
       <c r="N11">
-        <v>94.36175898593829</v>
+        <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.6356050738128274</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P11">
-        <v>0.6356050738128274</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q11">
-        <v>9017.653567328287</v>
+        <v>0.2069569146733333</v>
       </c>
       <c r="R11">
-        <v>9017.653567328287</v>
+        <v>1.86261223206</v>
       </c>
       <c r="S11">
-        <v>0.2100112019404906</v>
+        <v>2.115082906523319E-06</v>
       </c>
       <c r="T11">
-        <v>0.2100112019404906</v>
+        <v>2.115082906523319E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H12">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I12">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J12">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.878142231875</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N12">
-        <v>51.878142231875</v>
+        <v>169.150996</v>
       </c>
       <c r="O12">
-        <v>0.3494425154524411</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P12">
-        <v>0.3494425154524411</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q12">
-        <v>4957.719306963596</v>
+        <v>25.98178093115111</v>
       </c>
       <c r="R12">
-        <v>4957.719306963596</v>
+        <v>233.83602838036</v>
       </c>
       <c r="S12">
-        <v>0.1154598125516011</v>
+        <v>0.0002655316968522245</v>
       </c>
       <c r="T12">
-        <v>0.1154598125516011</v>
+        <v>0.0002655316968522245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H13">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I13">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J13">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.21983089207526</v>
+        <v>2.896484</v>
       </c>
       <c r="N13">
-        <v>2.21983089207526</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O13">
-        <v>0.0149524107347315</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P13">
-        <v>0.0149524107347315</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q13">
-        <v>212.137482152818</v>
+        <v>1.334709482146666</v>
       </c>
       <c r="R13">
-        <v>212.137482152818</v>
+        <v>12.01238533932</v>
       </c>
       <c r="S13">
-        <v>0.004940447897106579</v>
+        <v>1.364062280943327E-05</v>
       </c>
       <c r="T13">
-        <v>0.004940447897106579</v>
+        <v>1.364062280943327E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H14">
+        <v>363.090694</v>
+      </c>
+      <c r="I14">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J14">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>135.955556</v>
+      </c>
+      <c r="N14">
+        <v>407.866668</v>
+      </c>
+      <c r="O14">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="P14">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="Q14">
+        <v>16454.73239373196</v>
+      </c>
+      <c r="R14">
+        <v>148092.5915435876</v>
+      </c>
+      <c r="S14">
+        <v>0.1681660323953526</v>
+      </c>
+      <c r="T14">
+        <v>0.1681660323953526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H15">
+        <v>363.090694</v>
+      </c>
+      <c r="I15">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J15">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.449122</v>
+      </c>
+      <c r="N15">
+        <v>1.347366</v>
+      </c>
+      <c r="O15">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P15">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q15">
+        <v>54.35733955688934</v>
+      </c>
+      <c r="R15">
+        <v>489.216056012004</v>
+      </c>
+      <c r="S15">
+        <v>0.0005555276078711014</v>
+      </c>
+      <c r="T15">
+        <v>0.0005555276078711012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H16">
+        <v>363.090694</v>
+      </c>
+      <c r="I16">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J16">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N16">
+        <v>169.150996</v>
+      </c>
+      <c r="O16">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P16">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q16">
+        <v>6824.12805871458</v>
+      </c>
+      <c r="R16">
+        <v>61417.15252843122</v>
+      </c>
+      <c r="S16">
+        <v>0.06974203607400975</v>
+      </c>
+      <c r="T16">
+        <v>0.06974203607400974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H17">
+        <v>363.090694</v>
+      </c>
+      <c r="I17">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J17">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.896484</v>
+      </c>
+      <c r="N17">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P17">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q17">
+        <v>350.5621285732986</v>
+      </c>
+      <c r="R17">
+        <v>3155.059157159687</v>
+      </c>
+      <c r="S17">
+        <v>0.003582716561996337</v>
+      </c>
+      <c r="T17">
+        <v>0.003582716561996337</v>
       </c>
     </row>
   </sheetData>
